--- a/Dados/Tratamento Exceções.xlsx
+++ b/Dados/Tratamento Exceções.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Asset Management\Equipe\Emanuel\32.0-HedgeDI\Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C977636-AB7C-4032-8515-D40EEFCA6B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F9C9A6-7F5B-4533-B3A6-CB02A42D6346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3663E241-9EA8-4CD8-9452-8494A5C65F2A}"/>
+    <workbookView xWindow="990" yWindow="900" windowWidth="23020" windowHeight="12220" xr2:uid="{3663E241-9EA8-4CD8-9452-8494A5C65F2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,7 +622,7 @@
         <v>35</v>
       </c>
       <c r="I2">
-        <v>500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
